--- a/biology/Zoologie/Amietia_quecketti/Amietia_quecketti.xlsx
+++ b/biology/Zoologie/Amietia_quecketti/Amietia_quecketti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amietia quecketti est une espèce d'amphibiens de la famille des Pyxicephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amietia quecketti est une espèce d'amphibiens de la famille des Pyxicephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Lesotho ;
 au Zimbabwe ;
 en Afrique du Sud dans la province du KwaZulu-Natal.</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de F. J. Queckett[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de F. J. Queckett.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1895 "1894" : Third report on additions to the batrachian collection in the Natural History Museum. Proceedings of the Zoological Society of London, vol. 1894, p. 640–646 (texte intégral).
 Channing, 1978 : A new Rana from the Lesotho Plateau (Amphibia: Anura). Annals of the Natal Museum, vol. 23, no 2, p. 361-365 (texte intégral).</t>
